--- a/tests/server/fixtures/file-structure/EOHHS-075-06302020-missingColumn-v1.xlsx
+++ b/tests/server/fixtures/file-structure/EOHHS-075-06302020-missingColumn-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmclaughlin/git/usdr/cares-reporter/tests/server/fixtures/file-success/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmclaughlin/git/usdr/cares-reporter/tests/server/fixtures/file-structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC436C00-BE42-2F4C-8829-22DE473E9493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0689A59-19D8-154B-AD80-359BF7B9D303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="-18420" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="-18420" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="338">
   <si>
     <t>Agency Code</t>
   </si>
@@ -1058,6 +1058,9 @@
   <si>
     <t>ID + Duns</t>
   </si>
+  <si>
+    <t>Sum of expenses</t>
+  </si>
 </sst>
 </file>
 
@@ -1067,7 +1070,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1130,6 +1133,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1281,7 +1290,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1372,6 +1381,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11158,7 +11168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -12065,8 +12075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AY984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12219,7 +12229,9 @@
       <c r="AO1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="4"/>
+      <c r="AP1" s="62" t="s">
+        <v>337</v>
+      </c>
       <c r="AQ1" s="4"/>
       <c r="AR1" s="4"/>
       <c r="AS1" s="4"/>
@@ -19487,10 +19499,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AQ998"/>
+  <dimension ref="A1:AR998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19512,7 +19524,7 @@
     <col min="33" max="43" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -19642,8 +19654,11 @@
       <c r="AQ1" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR1" s="62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="41" t="s">
         <v>238</v>
       </c>
@@ -19722,7 +19737,7 @@
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
     </row>
-    <row r="3" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -19743,7 +19758,7 @@
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
     </row>
-    <row r="4" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AD4" s="5"/>
@@ -19760,7 +19775,7 @@
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
     </row>
-    <row r="5" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AD5" s="5"/>
@@ -19777,7 +19792,7 @@
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AD6" s="5"/>
@@ -19794,7 +19809,7 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
     </row>
-    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AD7" s="5"/>
@@ -19811,7 +19826,7 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
     </row>
-    <row r="8" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AD8" s="5"/>
@@ -19828,7 +19843,7 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
     </row>
-    <row r="9" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AD9" s="5"/>
@@ -19845,7 +19860,7 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
     </row>
-    <row r="10" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AD10" s="5"/>
@@ -19862,7 +19877,7 @@
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
     </row>
-    <row r="11" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AD11" s="5"/>
@@ -19879,7 +19894,7 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
     </row>
-    <row r="12" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AD12" s="5"/>
@@ -19896,7 +19911,7 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
     </row>
-    <row r="13" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AD13" s="5"/>
@@ -19913,7 +19928,7 @@
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
     </row>
-    <row r="14" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AD14" s="5"/>
@@ -19930,7 +19945,7 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
     </row>
-    <row r="15" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AD15" s="5"/>
@@ -19947,7 +19962,7 @@
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
     </row>
-    <row r="16" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AD16" s="5"/>
@@ -36670,10 +36685,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AM1000"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -36699,7 +36714,7 @@
     <col min="21" max="39" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -36817,8 +36832,11 @@
       <c r="AM1" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AN1" s="62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>240</v>
       </c>
@@ -36874,7 +36892,7 @@
         <v>50311.8</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>244</v>
       </c>
@@ -36928,7 +36946,7 @@
         <v>50529.599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
         <v>239</v>
       </c>
@@ -36984,7 +37002,7 @@
         <v>50856.3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="34"/>
       <c r="C5" s="34"/>
@@ -37002,7 +37020,7 @@
       <c r="P5" s="34"/>
       <c r="AC5" s="34"/>
     </row>
-    <row r="6" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -37020,7 +37038,7 @@
       <c r="P6" s="33"/>
       <c r="AC6" s="33"/>
     </row>
-    <row r="7" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32"/>
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
@@ -37038,7 +37056,7 @@
       <c r="P7" s="34"/>
       <c r="AC7" s="34"/>
     </row>
-    <row r="8" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -37056,7 +37074,7 @@
       <c r="P8" s="33"/>
       <c r="AC8" s="33"/>
     </row>
-    <row r="9" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -37074,7 +37092,7 @@
       <c r="P9" s="34"/>
       <c r="AC9" s="34"/>
     </row>
-    <row r="10" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -37092,7 +37110,7 @@
       <c r="P10" s="33"/>
       <c r="AC10" s="33"/>
     </row>
-    <row r="11" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32"/>
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
@@ -37110,7 +37128,7 @@
       <c r="P11" s="34"/>
       <c r="AC11" s="34"/>
     </row>
-    <row r="12" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -37128,7 +37146,7 @@
       <c r="P12" s="33"/>
       <c r="AC12" s="33"/>
     </row>
-    <row r="13" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
@@ -37146,7 +37164,7 @@
       <c r="P13" s="34"/>
       <c r="AC13" s="34"/>
     </row>
-    <row r="14" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -37164,7 +37182,7 @@
       <c r="P14" s="33"/>
       <c r="AC14" s="33"/>
     </row>
-    <row r="15" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32"/>
       <c r="B15" s="34"/>
       <c r="C15" s="34"/>
@@ -37182,7 +37200,7 @@
       <c r="P15" s="34"/>
       <c r="AC15" s="34"/>
     </row>
-    <row r="16" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -39195,10 +39213,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE988"/>
+  <dimension ref="A1:AF988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -39225,7 +39243,7 @@
     <col min="22" max="31" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -39319,8 +39337,11 @@
       <c r="AE1" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF1" s="62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="53" t="s">
         <v>247</v>
       </c>
@@ -39369,7 +39390,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="13"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -39381,7 +39402,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -39392,7 +39413,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -39403,77 +39424,77 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="5"/>
       <c r="P6" s="5"/>
       <c r="R6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N7" s="5"/>
       <c r="P7" s="5"/>
       <c r="R7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N8" s="5"/>
       <c r="P8" s="5"/>
       <c r="R8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N9" s="5"/>
       <c r="P9" s="5"/>
       <c r="R9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N10" s="5"/>
       <c r="P10" s="5"/>
       <c r="R10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N11" s="5"/>
       <c r="P11" s="5"/>
       <c r="R11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N12" s="5"/>
       <c r="P12" s="5"/>
       <c r="R12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N13" s="5"/>
       <c r="P13" s="5"/>
       <c r="R13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N14" s="5"/>
       <c r="P14" s="5"/>
       <c r="R14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
       <c r="R15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
       <c r="R16" s="5"/>
@@ -46292,10 +46313,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB997"/>
+  <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46321,7 +46342,7 @@
     <col min="21" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="126" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="126" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -46406,8 +46427,11 @@
       <c r="AB1" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC1" s="62" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>242</v>
       </c>
@@ -46449,7 +46473,7 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="47" t="s">
         <v>243</v>
       </c>
@@ -46489,7 +46513,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
         <v>245</v>
       </c>
@@ -46532,84 +46556,84 @@
         <v>4823852.3849999998</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K5" s="5"/>
       <c r="M5" s="5"/>
       <c r="O5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K7" s="5"/>
       <c r="M7" s="5"/>
       <c r="O7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K8" s="5"/>
       <c r="M8" s="5"/>
       <c r="O8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K9" s="5"/>
       <c r="M9" s="5"/>
       <c r="O9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K10" s="5"/>
       <c r="M10" s="52"/>
       <c r="O10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K11" s="5"/>
       <c r="M11" s="5"/>
       <c r="O11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
       <c r="O12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K13" s="5"/>
       <c r="M13" s="5"/>
       <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K15" s="5"/>
       <c r="M15" s="5"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K16" s="5"/>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
